--- a/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2B943D-0011-FD4A-9FF9-DEBAC2C23044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EFD321-0029-5647-8EF3-7281874913BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="5380" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="65">
   <si>
     <t>Weight</t>
   </si>
@@ -208,22 +208,28 @@
     <t>total weight</t>
   </si>
   <si>
-    <t>Nermeen</t>
-  </si>
-  <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
-    <t>Aiden</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
     <t>Exam4</t>
   </si>
   <si>
     <t>Paper Project</t>
+  </si>
+  <si>
+    <t>Imtiaj</t>
+  </si>
+  <si>
+    <t>Tsu-Chun</t>
+  </si>
+  <si>
+    <t>Zaheen</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Rashed</t>
+  </si>
+  <si>
+    <t>Sadman</t>
   </si>
 </sst>
 </file>
@@ -603,103 +609,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:N36"/>
+  <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="8" max="9" width="15.5" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="10" max="11" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
       </c>
       <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E6">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F6">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="G6">
+        <v>85</v>
       </c>
       <c r="H6">
+        <v>91</v>
+      </c>
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="J6" s="3">
-        <f>AVERAGE(C6:G6)</f>
-        <v>89.5</v>
-      </c>
-      <c r="K6" s="3">
-        <f>STDEV(C6:G6)</f>
-        <v>5</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="3">
+        <f>AVERAGE(C6:H6)</f>
+        <v>84.666666666666671</v>
+      </c>
+      <c r="M6" s="3">
+        <f>STDEV(C6:H6)</f>
+        <v>10.443498775155151</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="3">
-        <f>J6+F7</f>
-        <v>89.5</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <f>L6+H7</f>
+        <v>89.666666666666671</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -715,386 +751,301 @@
       <c r="F8">
         <v>0.16</v>
       </c>
+      <c r="G8">
+        <v>0.16</v>
+      </c>
       <c r="H8">
         <v>0.16</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="J8">
+        <v>0.16</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>(C6+C7)*C8</f>
-        <v>13.44</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:H9" si="0">(D6+D7)*D8</f>
-        <v>15.36</v>
+        <f t="shared" ref="D9:J9" si="0">(D6+D7)*D8</f>
+        <v>12.8</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>14.08</v>
+        <v>16.48</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F9:G9" si="1">(F6+F7)*F8</f>
+        <v>15.040000000000001</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
+        <v>15.36</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>96</v>
-      </c>
-      <c r="D10">
-        <v>94</v>
-      </c>
-      <c r="E10">
-        <v>93</v>
-      </c>
-      <c r="F10">
-        <v>70</v>
-      </c>
-      <c r="H10">
+      <c r="J10">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
-        <f>AVERAGE(C10:H10)</f>
-        <v>90.6</v>
-      </c>
-      <c r="K10" s="3">
-        <f>STDEV(C10:H10)</f>
-        <v>11.82370500308593</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="3">
+        <f>AVERAGE(C10:J10)</f>
+        <v>100</v>
+      </c>
+      <c r="M10" s="3" t="e">
+        <f>STDEV(C10:J10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0.16</v>
-      </c>
-      <c r="D12">
-        <v>0.16</v>
-      </c>
-      <c r="E12">
-        <v>0.16</v>
-      </c>
-      <c r="F12">
-        <v>0.16</v>
-      </c>
-      <c r="H12">
-        <v>0.16</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C13">
-        <f>(C10+C11)*C12</f>
-        <v>15.36</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13:F13" si="1">(D10+D11)*D12</f>
-        <v>15.040000000000001</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>14.88</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13" si="2">(H10+H11)*H12</f>
-        <v>16</v>
-      </c>
-      <c r="M13" s="2" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>104</v>
-      </c>
-      <c r="D14">
-        <v>104</v>
-      </c>
-      <c r="E14">
-        <v>101</v>
-      </c>
-      <c r="F14">
-        <v>97</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3">
-        <f>AVERAGE(C14:G14)</f>
-        <v>101.5</v>
-      </c>
-      <c r="K14" s="3">
-        <f>STDEV(C14:G14)</f>
-        <v>3.3166247903553998</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0.16</v>
-      </c>
-      <c r="D16">
-        <v>0.16</v>
-      </c>
-      <c r="E16">
-        <v>0.16</v>
-      </c>
-      <c r="F16">
-        <v>0.16</v>
-      </c>
-      <c r="H16">
-        <v>0.16</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <f>(C14+C15)*C16</f>
-        <v>16.64</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:H17" si="3">(D14+D15)*D16</f>
-        <v>16.64</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>16.16</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>15.52</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H16:H17" si="4">(H14+H15)*H16</f>
-        <v>16</v>
-      </c>
-      <c r="M17" s="2" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="3" t="e">
-        <f>AVERAGE(C18:G18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="3" t="e">
-        <f>STDEV(C18:G18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="O18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="3" t="e">
-        <f>AVERAGE(D22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="3" t="e">
-        <f>STDEV(D22:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31">
         <f>SUM(C9,C20,C13,C17,C25)</f>
-        <v>45.44</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <f>SUM(D9,D20,D13,D17,D25)</f>
-        <v>47.04</v>
+        <v>12.8</v>
       </c>
       <c r="E31">
         <f>SUM(E9,E20,E13,E17,E25)</f>
-        <v>45.120000000000005</v>
+        <v>16.48</v>
       </c>
       <c r="F31">
-        <f>SUM(F9,F20,F13,F17,F25)</f>
-        <v>41.120000000000005</v>
+        <f t="shared" ref="F31:G31" si="2">SUM(F9,F20,F13,F17,F25)</f>
+        <v>15.040000000000001</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
       </c>
       <c r="H31">
         <f>SUM(H9,H20,H13,H17,H25)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+        <v>15.36</v>
+      </c>
+      <c r="J31">
+        <f>SUM(J9,J20,J13,J17,J25)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="3" t="e">
-        <f>AVERAGE(D33:G33)</f>
+      <c r="L33" s="3" t="e">
+        <f>AVERAGE(D33:I33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="3" t="e">
-        <f>STDEV(D33:G33)</f>
+      <c r="M33" s="3" t="e">
+        <f>STDEV(D33:I33)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1">
-        <f>C31/$H$31</f>
-        <v>0.94666666666666666</v>
+        <f>C31/$J$31</f>
+        <v>0.75</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:F34" si="5">D31/$H$31</f>
-        <v>0.98</v>
+        <f t="shared" ref="D34:H34" si="3">D31/$J$31</f>
+        <v>0.8</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
+        <v>1.03</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:G34" si="4">F31/$J$31</f>
         <v>0.94000000000000006</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" si="5"/>
-        <v>0.8566666666666668</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G34" s="1">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="H36">
-        <f>SUM(H25,H20,H17,H13,H9)</f>
-        <v>48</v>
+      <c r="J36">
+        <f>SUM(J25,J20,J17,J13,J9)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EFD321-0029-5647-8EF3-7281874913BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25623CA-F7CD-9647-A289-0D9798CDF9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="5380" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="70">
   <si>
     <t>Weight</t>
   </si>
@@ -230,6 +230,21 @@
   </si>
   <si>
     <t>Sadman</t>
+  </si>
+  <si>
+    <t>MOOSE Project</t>
+  </si>
+  <si>
+    <t>Part1</t>
+  </si>
+  <si>
+    <t>Part2</t>
+  </si>
+  <si>
+    <t>Part3</t>
+  </si>
+  <si>
+    <t>subweight</t>
   </si>
 </sst>
 </file>
@@ -313,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -353,7 +368,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -459,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -609,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:P36"/>
+  <dimension ref="B2:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,16 +822,34 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>99</v>
+      </c>
+      <c r="F10">
+        <v>98</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>88</v>
+      </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="L10" s="3">
         <f>AVERAGE(C10:J10)</f>
-        <v>100</v>
-      </c>
-      <c r="M10" s="3" t="e">
+        <v>90.714285714285708</v>
+      </c>
+      <c r="M10" s="3">
         <f>STDEV(C10:J10)</f>
-        <v>#DIV/0!</v>
+        <v>8.616153157766826</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>16</v>
@@ -829,6 +862,24 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="O11" s="2" t="s">
         <v>18</v>
       </c>
@@ -840,6 +891,27 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
+      <c r="C12">
+        <v>0.16</v>
+      </c>
+      <c r="D12">
+        <v>0.16</v>
+      </c>
+      <c r="E12">
+        <v>0.16</v>
+      </c>
+      <c r="F12">
+        <v>0.16</v>
+      </c>
+      <c r="G12">
+        <v>0.16</v>
+      </c>
+      <c r="H12">
+        <v>0.16</v>
+      </c>
+      <c r="J12">
+        <v>0.16</v>
+      </c>
       <c r="O12" s="2" t="s">
         <v>20</v>
       </c>
@@ -848,6 +920,34 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f>(C10+C11)*C12</f>
+        <v>14.4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:H13" si="2">(D10+D11)*D12</f>
+        <v>12.8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>15.84</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>15.68</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>14.08</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="3">(J10+J11)*J12</f>
+        <v>16</v>
+      </c>
       <c r="O13" s="2" t="s">
         <v>22</v>
       </c>
@@ -883,6 +983,24 @@
       <c r="B16" t="s">
         <v>0</v>
       </c>
+      <c r="C16">
+        <v>0.16</v>
+      </c>
+      <c r="D16">
+        <v>0.16</v>
+      </c>
+      <c r="E16">
+        <v>0.16</v>
+      </c>
+      <c r="F16">
+        <v>0.16</v>
+      </c>
+      <c r="G16">
+        <v>0.16</v>
+      </c>
+      <c r="H16">
+        <v>0.16</v>
+      </c>
       <c r="O16" s="2" t="s">
         <v>28</v>
       </c>
@@ -920,6 +1038,24 @@
       <c r="B20" t="s">
         <v>0</v>
       </c>
+      <c r="C20">
+        <v>0.16</v>
+      </c>
+      <c r="D20">
+        <v>0.16</v>
+      </c>
+      <c r="E20">
+        <v>0.16</v>
+      </c>
+      <c r="F20">
+        <v>0.16</v>
+      </c>
+      <c r="G20">
+        <v>0.16</v>
+      </c>
+      <c r="H20">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
@@ -932,6 +1068,24 @@
       <c r="B23" t="s">
         <v>0</v>
       </c>
+      <c r="C23">
+        <v>0.16</v>
+      </c>
+      <c r="D23">
+        <v>0.16</v>
+      </c>
+      <c r="E23">
+        <v>0.16</v>
+      </c>
+      <c r="F23">
+        <v>0.16</v>
+      </c>
+      <c r="G23">
+        <v>0.16</v>
+      </c>
+      <c r="H23">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
@@ -940,112 +1094,199 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>0.33</v>
+      </c>
+      <c r="D28">
+        <v>0.33</v>
+      </c>
+      <c r="E28">
+        <v>0.33</v>
+      </c>
+      <c r="F28">
+        <v>0.33</v>
+      </c>
+      <c r="G28">
+        <v>0.33</v>
+      </c>
+      <c r="H28">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>0.33</v>
+      </c>
+      <c r="D30">
+        <v>0.33</v>
+      </c>
+      <c r="E30">
+        <v>0.33</v>
+      </c>
+      <c r="F30">
+        <v>0.33</v>
+      </c>
+      <c r="G30">
+        <v>0.33</v>
+      </c>
+      <c r="H30">
+        <v>0.33</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C9,C20,C13,C17,C25)</f>
-        <v>12</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D9,D20,D13,D17,D25)</f>
-        <v>12.8</v>
-      </c>
-      <c r="E31">
-        <f>SUM(E9,E20,E13,E17,E25)</f>
-        <v>16.48</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ref="F31:G31" si="2">SUM(F9,F20,F13,F17,F25)</f>
-        <v>15.040000000000001</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>14.4</v>
-      </c>
-      <c r="H31">
-        <f>SUM(H9,H20,H13,H17,H25)</f>
-        <v>15.36</v>
-      </c>
-      <c r="J31">
-        <f>SUM(J9,J20,J13,J17,J25)</f>
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="C32">
+        <v>0.34</v>
+      </c>
+      <c r="D32">
+        <v>0.34</v>
+      </c>
+      <c r="E32">
+        <v>0.34</v>
+      </c>
+      <c r="F32">
+        <v>0.34</v>
+      </c>
+      <c r="G32">
+        <v>0.34</v>
+      </c>
+      <c r="H32">
+        <v>0.34</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="L33" s="3" t="e">
-        <f>AVERAGE(D33:I33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="3" t="e">
-        <f>STDEV(D33:I33)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1">
-        <f>C31/$J$31</f>
-        <v>0.75</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" ref="D34:H34" si="3">D31/$J$31</f>
-        <v>0.8</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="3"/>
-        <v>1.03</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ref="F34:G34" si="4">F31/$J$31</f>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="3"/>
-        <v>0.96</v>
-      </c>
-      <c r="I34" s="1"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f>SUM(C9,C20,C13,C17,C25)</f>
+        <v>26.560000000000002</v>
+      </c>
+      <c r="D37">
+        <f>SUM(D9,D20,D13,D17,D25)</f>
+        <v>25.76</v>
+      </c>
+      <c r="E37">
+        <f>SUM(E9,E20,E13,E17,E25)</f>
+        <v>32.480000000000004</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:G37" si="4">SUM(F9,F20,F13,F17,F25)</f>
+        <v>30.880000000000003</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>27.36</v>
+      </c>
+      <c r="H37">
+        <f>SUM(H9,H20,H13,H17,H25)</f>
+        <v>29.6</v>
+      </c>
+      <c r="J37">
+        <f>SUM(J9,J20,J13,J17,J25)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="3" t="e">
+        <f>AVERAGE(D39:I39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="3" t="e">
+        <f>STDEV(D39:I39)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1">
+        <f>C37/$J$37</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" ref="D40:H40" si="5">D37/$J$37</f>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0150000000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ref="F40:G40" si="6">F37/$J$37</f>
+        <v>0.96500000000000008</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="6"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="5"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="J36">
+      <c r="J42">
         <f>SUM(J25,J20,J17,J13,J9)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED14E999-8372-A24F-B63C-8D2E292084EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC5E7E-A46F-4746-9B60-D04125793E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7400" yWindow="4500" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -596,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -1031,8 +1031,35 @@
       <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="C22">
+        <v>92</v>
+      </c>
+      <c r="D22">
+        <v>94</v>
+      </c>
+      <c r="E22">
+        <v>99</v>
+      </c>
+      <c r="F22">
+        <v>88</v>
+      </c>
+      <c r="G22">
+        <v>88</v>
+      </c>
+      <c r="H22">
+        <v>97</v>
+      </c>
+      <c r="J22">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <f>AVERAGE(C22:H22)</f>
+        <v>93</v>
+      </c>
+      <c r="M22" s="3">
+        <f>STDEV(C22:H22)</f>
+        <v>4.5607017003965522</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
@@ -1056,11 +1083,42 @@
       <c r="H23">
         <v>0.16</v>
       </c>
+      <c r="J23">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>41</v>
       </c>
+      <c r="C24">
+        <f t="shared" ref="C24:G24" si="4">C22*C23</f>
+        <v>14.72</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>15.040000000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>15.84</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>14.08</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>14.08</v>
+      </c>
+      <c r="H24">
+        <f>H22*H23</f>
+        <v>15.52</v>
+      </c>
+      <c r="J24">
+        <f>(J21+J22)*J23</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -1194,27 +1252,27 @@
         <v>56</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:H34" si="4">C27*C28+C29*C30+C31*C32</f>
+        <f t="shared" ref="C34:H34" si="5">C27*C28+C29*C30+C31*C32</f>
         <v>15</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="J34">
@@ -1257,23 +1315,23 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:H36" si="5">D34*D35</f>
+        <f t="shared" ref="D36:H36" si="6">D34*D35</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2</v>
       </c>
       <c r="J36">
@@ -1291,32 +1349,32 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <f>SUM(C9,C20,C13,C17,C25,C36)</f>
-        <v>29.560000000000002</v>
+        <f t="shared" ref="C39:G39" si="7">SUM(C9,C20,C13,C17,C24,C36)</f>
+        <v>44.28</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:H39" si="6">SUM(D9,D20,D13,D17,D25,D36)</f>
-        <v>29.160000000000004</v>
+        <f t="shared" si="7"/>
+        <v>44.2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="6"/>
-        <v>36.480000000000004</v>
+        <f t="shared" si="7"/>
+        <v>52.320000000000007</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
-        <v>34.480000000000004</v>
+        <f t="shared" si="7"/>
+        <v>48.56</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
-        <v>28.86</v>
+        <f t="shared" si="7"/>
+        <v>42.94</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
-        <v>32.800000000000004</v>
+        <f>SUM(H9,H20,H13,H17,H24,H36)</f>
+        <v>48.320000000000007</v>
       </c>
       <c r="J39">
-        <f>SUM(J9,J20,J13,J17,J25,J36)</f>
-        <v>36</v>
+        <f>SUM(J9,J20,J13,J17,J24,J36)</f>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
@@ -1341,36 +1399,36 @@
       </c>
       <c r="C42" s="1">
         <f>C39/$J$39</f>
-        <v>0.82111111111111112</v>
+        <v>0.85153846153846158</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ref="D42:H42" si="7">D39/$J$39</f>
-        <v>0.81</v>
+        <f t="shared" ref="D42:H42" si="8">D39/$J$39</f>
+        <v>0.85000000000000009</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0133333333333334</v>
+        <f t="shared" si="8"/>
+        <v>1.0061538461538464</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ref="F42:G42" si="8">F39/$J$39</f>
-        <v>0.95777777777777784</v>
+        <f t="shared" ref="F42:G42" si="9">F39/$J$39</f>
+        <v>0.93384615384615388</v>
       </c>
       <c r="G42" s="1">
+        <f t="shared" si="9"/>
+        <v>0.8257692307692307</v>
+      </c>
+      <c r="H42" s="1">
         <f t="shared" si="8"/>
-        <v>0.80166666666666664</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="7"/>
-        <v>0.9111111111111112</v>
+        <v>0.92923076923076942</v>
       </c>
       <c r="I42" s="1"/>
       <c r="L42" s="3">
         <f>AVERAGE(C42:H42)</f>
-        <v>0.88583333333333336</v>
+        <v>0.89942307692307699</v>
       </c>
       <c r="M42" s="3">
         <f>STDEV(C42:H42)</f>
-        <v>8.8425004842982546E-2</v>
+        <v>6.87391734347821E-2</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
@@ -1378,8 +1436,8 @@
         <v>32</v>
       </c>
       <c r="J44">
-        <f>SUM(J25,J20,J17,J13,J9)</f>
-        <v>32</v>
+        <f>SUM(J24,J20,J17,J13,J9,J36)</f>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC5E7E-A46F-4746-9B60-D04125793E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0D1817-5CF9-BB49-B23C-249452023A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7400" yWindow="4500" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,8 +929,35 @@
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="C14">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>104</v>
+      </c>
+      <c r="F14">
+        <v>88</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>101</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
+        <f>AVERAGE(C14:J14)</f>
+        <v>98.285714285714292</v>
+      </c>
+      <c r="M14" s="3">
+        <f>STDEV(C14:J14)</f>
+        <v>5.2508502712826015</v>
+      </c>
       <c r="O14" s="2" t="s">
         <v>23</v>
       </c>
@@ -942,6 +969,24 @@
       <c r="B15" t="s">
         <v>37</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="O15" s="2" t="s">
         <v>25</v>
       </c>
@@ -971,6 +1016,9 @@
       <c r="H16">
         <v>0.16</v>
       </c>
+      <c r="J16">
+        <v>0.16</v>
+      </c>
       <c r="O16" s="2" t="s">
         <v>27</v>
       </c>
@@ -979,6 +1027,34 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" ref="C17:H17" si="4">(C14+C15)*C16</f>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>16.64</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>14.08</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>16.16</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="5">(J14+J15)*J16</f>
+        <v>16</v>
+      </c>
       <c r="O17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1092,23 +1168,23 @@
         <v>41</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:G24" si="4">C22*C23</f>
+        <f t="shared" ref="C24:G24" si="6">C22*C23</f>
         <v>14.72</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15.040000000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15.84</v>
       </c>
       <c r="F24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.08</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14.08</v>
       </c>
       <c r="H24">
@@ -1252,27 +1328,27 @@
         <v>56</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:H34" si="5">C27*C28+C29*C30+C31*C32</f>
+        <f t="shared" ref="C34:H34" si="7">C27*C28+C29*C30+C31*C32</f>
         <v>15</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="J34">
@@ -1315,23 +1391,23 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:H36" si="6">D34*D35</f>
+        <f t="shared" ref="D36:H36" si="8">D34*D35</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="E36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2</v>
       </c>
       <c r="J36">
@@ -1349,32 +1425,32 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:G39" si="7">SUM(C9,C20,C13,C17,C24,C36)</f>
-        <v>44.28</v>
+        <f t="shared" ref="C39:G39" si="9">SUM(C9,C20,C13,C17,C24,C36)</f>
+        <v>59.480000000000004</v>
       </c>
       <c r="D39">
-        <f t="shared" si="7"/>
-        <v>44.2</v>
+        <f>SUM(D9,D21,D13,D17,D24,D36)</f>
+        <v>60.04</v>
       </c>
       <c r="E39">
-        <f t="shared" si="7"/>
-        <v>52.320000000000007</v>
+        <f>SUM(E9,E20,E13,E17,E24,E36)</f>
+        <v>68.960000000000008</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
-        <v>48.56</v>
+        <f t="shared" si="9"/>
+        <v>62.64</v>
       </c>
       <c r="G39">
-        <f t="shared" si="7"/>
-        <v>42.94</v>
+        <f t="shared" si="9"/>
+        <v>58.94</v>
       </c>
       <c r="H39">
         <f>SUM(H9,H20,H13,H17,H24,H36)</f>
-        <v>48.320000000000007</v>
+        <v>64.48</v>
       </c>
       <c r="J39">
         <f>SUM(J9,J20,J13,J17,J24,J36)</f>
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
@@ -1399,36 +1475,36 @@
       </c>
       <c r="C42" s="1">
         <f>C39/$J$39</f>
-        <v>0.85153846153846158</v>
+        <v>0.87470588235294122</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ref="D42:H42" si="8">D39/$J$39</f>
-        <v>0.85000000000000009</v>
+        <f t="shared" ref="D42:H42" si="10">D39/$J$39</f>
+        <v>0.88294117647058823</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0061538461538464</v>
+        <f>E39/$J$39</f>
+        <v>1.0141176470588236</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ref="F42:G42" si="9">F39/$J$39</f>
-        <v>0.93384615384615388</v>
+        <f t="shared" ref="F42:G42" si="11">F39/$J$39</f>
+        <v>0.92117647058823526</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="9"/>
-        <v>0.8257692307692307</v>
+        <f t="shared" si="11"/>
+        <v>0.86676470588235288</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="8"/>
-        <v>0.92923076923076942</v>
+        <f t="shared" si="10"/>
+        <v>0.94823529411764707</v>
       </c>
       <c r="I42" s="1"/>
       <c r="L42" s="3">
         <f>AVERAGE(C42:H42)</f>
-        <v>0.89942307692307699</v>
+        <v>0.91799019607843146</v>
       </c>
       <c r="M42" s="3">
         <f>STDEV(C42:H42)</f>
-        <v>6.87391734347821E-2</v>
+        <v>5.6376274386708919E-2</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
@@ -1437,7 +1513,7 @@
       </c>
       <c r="J44">
         <f>SUM(J24,J20,J17,J13,J9,J36)</f>
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0D1817-5CF9-BB49-B23C-249452023A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF6390F-D478-DF44-8A86-2CDA613F9632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7400" yWindow="4500" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
   <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1215,7 +1215,7 @@
         <v>100</v>
       </c>
       <c r="F27">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G27">
         <v>37.5</v>
@@ -1228,11 +1228,11 @@
       </c>
       <c r="L27" s="3">
         <f>AVERAGE(C27:H27)</f>
-        <v>77.916666666666671</v>
+        <v>78.75</v>
       </c>
       <c r="M27" s="3">
         <f>STDEV(C27:H27)</f>
-        <v>21.587998208881412</v>
+        <v>22.234545194359161</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
@@ -1265,6 +1265,27 @@
       <c r="B29" t="s">
         <v>53</v>
       </c>
+      <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>95</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>95</v>
+      </c>
+      <c r="G29">
+        <v>92</v>
+      </c>
+      <c r="H29">
+        <v>98</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
@@ -1329,31 +1350,31 @@
       </c>
       <c r="C34">
         <f t="shared" ref="C34:H34" si="7">C27*C28+C29*C30+C31*C32</f>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D34">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>45.5</v>
       </c>
       <c r="E34">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>47.5</v>
       </c>
       <c r="G34">
         <f t="shared" si="7"/>
-        <v>7.5</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>45.4</v>
       </c>
       <c r="J34">
         <f>J27*J28+J29*J30+J31*J32</f>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
@@ -1388,31 +1409,31 @@
       </c>
       <c r="C36">
         <f>C34*C35</f>
-        <v>3</v>
+        <v>8.4</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:H36" si="8">D34*D35</f>
-        <v>3.4000000000000004</v>
+        <v>9.1</v>
       </c>
       <c r="E36">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <f t="shared" si="8"/>
-        <v>3.6</v>
+        <v>9.5</v>
       </c>
       <c r="G36">
         <f t="shared" si="8"/>
-        <v>1.5</v>
+        <v>7.02</v>
       </c>
       <c r="H36">
         <f t="shared" si="8"/>
-        <v>3.2</v>
+        <v>9.08</v>
       </c>
       <c r="J36">
         <f>J34*J35</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
@@ -1426,31 +1447,31 @@
       </c>
       <c r="C39">
         <f t="shared" ref="C39:G39" si="9">SUM(C9,C20,C13,C17,C24,C36)</f>
-        <v>59.480000000000004</v>
+        <v>64.88000000000001</v>
       </c>
       <c r="D39">
         <f>SUM(D9,D21,D13,D17,D24,D36)</f>
-        <v>60.04</v>
+        <v>65.739999999999995</v>
       </c>
       <c r="E39">
         <f>SUM(E9,E20,E13,E17,E24,E36)</f>
-        <v>68.960000000000008</v>
+        <v>74.960000000000008</v>
       </c>
       <c r="F39">
         <f t="shared" si="9"/>
-        <v>62.64</v>
+        <v>68.539999999999992</v>
       </c>
       <c r="G39">
         <f t="shared" si="9"/>
-        <v>58.94</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="H39">
         <f>SUM(H9,H20,H13,H17,H24,H36)</f>
-        <v>64.48</v>
+        <v>70.36</v>
       </c>
       <c r="J39">
         <f>SUM(J9,J20,J13,J17,J24,J36)</f>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
@@ -1475,36 +1496,36 @@
       </c>
       <c r="C42" s="1">
         <f>C39/$J$39</f>
-        <v>0.87470588235294122</v>
+        <v>0.87675675675675691</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" ref="D42:H42" si="10">D39/$J$39</f>
-        <v>0.88294117647058823</v>
+        <v>0.8883783783783783</v>
       </c>
       <c r="E42" s="1">
         <f>E39/$J$39</f>
-        <v>1.0141176470588236</v>
+        <v>1.0129729729729731</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ref="F42:G42" si="11">F39/$J$39</f>
-        <v>0.92117647058823526</v>
+        <v>0.92621621621621608</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="11"/>
-        <v>0.86676470588235288</v>
+        <v>0.87108108108108095</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="10"/>
-        <v>0.94823529411764707</v>
+        <v>0.95081081081081076</v>
       </c>
       <c r="I42" s="1"/>
       <c r="L42" s="3">
         <f>AVERAGE(C42:H42)</f>
-        <v>0.91799019607843146</v>
+        <v>0.92103603603603601</v>
       </c>
       <c r="M42" s="3">
         <f>STDEV(C42:H42)</f>
-        <v>5.6376274386708919E-2</v>
+        <v>5.4568207877229734E-2</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
@@ -1513,7 +1534,7 @@
       </c>
       <c r="J44">
         <f>SUM(J24,J20,J17,J13,J9,J36)</f>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF6390F-D478-DF44-8A86-2CDA613F9632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE57F75F-EFEF-AF43-9D4A-C041DAE0641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="4500" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="7380" yWindow="4500" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Weight</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>stdev</t>
+  </si>
+  <si>
+    <t>Survey</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +240,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,12 +284,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:P44"/>
+  <dimension ref="B2:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,8 +825,8 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <f>AVERAGE(C10:J10)</f>
-        <v>90.714285714285708</v>
+        <f>AVERAGE(C10:H10)</f>
+        <v>89.166666666666671</v>
       </c>
       <c r="M10" s="3">
         <f>STDEV(C10:J10)</f>
@@ -951,8 +962,8 @@
         <v>100</v>
       </c>
       <c r="L14" s="3">
-        <f>AVERAGE(C14:J14)</f>
-        <v>98.285714285714292</v>
+        <f>AVERAGE(C14:H14)</f>
+        <v>98</v>
       </c>
       <c r="M14" s="3">
         <f>STDEV(C14:J14)</f>
@@ -1066,8 +1077,35 @@
       <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="C18">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>97</v>
+      </c>
+      <c r="F18">
+        <v>97</v>
+      </c>
+      <c r="G18">
+        <v>94</v>
+      </c>
+      <c r="H18">
+        <v>94</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
+        <f>AVERAGE(C18:H18)</f>
+        <v>93.166666666666671</v>
+      </c>
+      <c r="M18" s="3">
+        <f>STDEV(C18:J18)</f>
+        <v>4.4507891221134939</v>
+      </c>
       <c r="O18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1082,194 +1120,190 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C20">
-        <v>0.16</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>0.16</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>0.16</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>0.16</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>0.16</v>
+        <v>5</v>
       </c>
       <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.16</v>
+      </c>
+      <c r="D21">
+        <v>0.16</v>
+      </c>
+      <c r="E21">
+        <v>0.16</v>
+      </c>
+      <c r="F21">
+        <v>0.16</v>
+      </c>
+      <c r="G21">
+        <v>0.16</v>
+      </c>
+      <c r="H21">
+        <v>0.16</v>
+      </c>
+      <c r="J21">
         <v>0.16</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
       <c r="C22">
-        <v>92</v>
+        <f>(C18+C19+C20)*C21</f>
+        <v>14.72</v>
       </c>
       <c r="D22">
-        <v>94</v>
+        <f t="shared" ref="D22:H22" si="6">(D18+D19+D20)*D21</f>
+        <v>15.200000000000001</v>
       </c>
       <c r="E22">
-        <v>99</v>
+        <f t="shared" si="6"/>
+        <v>16.32</v>
       </c>
       <c r="F22">
-        <v>88</v>
+        <f t="shared" si="6"/>
+        <v>16.32</v>
       </c>
       <c r="G22">
-        <v>88</v>
+        <f t="shared" si="6"/>
+        <v>15.84</v>
       </c>
       <c r="H22">
-        <v>97</v>
+        <f t="shared" si="6"/>
+        <v>15.84</v>
       </c>
       <c r="J22">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <f>AVERAGE(C22:H22)</f>
-        <v>93</v>
-      </c>
-      <c r="M22" s="3">
-        <f>STDEV(C22:H22)</f>
-        <v>4.5607017003965522</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0.16</v>
-      </c>
-      <c r="D23">
-        <v>0.16</v>
-      </c>
-      <c r="E23">
-        <v>0.16</v>
-      </c>
-      <c r="F23">
-        <v>0.16</v>
-      </c>
-      <c r="G23">
-        <v>0.16</v>
-      </c>
-      <c r="H23">
-        <v>0.16</v>
-      </c>
-      <c r="J23">
-        <v>0.16</v>
+        <f>(J18+J20)*J21</f>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:G24" si="6">C22*C23</f>
-        <v>14.72</v>
+        <v>92</v>
       </c>
       <c r="D24">
-        <f t="shared" si="6"/>
-        <v>15.040000000000001</v>
+        <v>94</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
-        <v>15.84</v>
+        <v>99</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
-        <v>14.08</v>
+        <v>88</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
-        <v>14.08</v>
+        <v>88</v>
       </c>
       <c r="H24">
-        <f>H22*H23</f>
-        <v>15.52</v>
+        <v>97</v>
       </c>
       <c r="J24">
-        <f>(J21+J22)*J23</f>
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <f>AVERAGE(C24:H24)</f>
+        <v>93</v>
+      </c>
+      <c r="M24" s="3">
+        <f>STDEV(C24:H24)</f>
+        <v>4.5607017003965522</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.16</v>
+      </c>
+      <c r="D25">
+        <v>0.16</v>
+      </c>
+      <c r="E25">
+        <v>0.16</v>
+      </c>
+      <c r="F25">
+        <v>0.16</v>
+      </c>
+      <c r="G25">
+        <v>0.16</v>
+      </c>
+      <c r="H25">
+        <v>0.16</v>
+      </c>
+      <c r="J25">
+        <v>0.16</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27">
-        <v>75</v>
-      </c>
-      <c r="D27">
-        <v>85</v>
-      </c>
-      <c r="E27">
-        <v>100</v>
-      </c>
-      <c r="F27">
-        <v>95</v>
-      </c>
-      <c r="G27">
-        <v>37.5</v>
-      </c>
-      <c r="H27">
-        <v>80</v>
-      </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <f>AVERAGE(C27:H27)</f>
-        <v>78.75</v>
-      </c>
-      <c r="M27" s="3">
-        <f>STDEV(C27:H27)</f>
-        <v>22.234545194359161</v>
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:G26" si="7">C24*C25</f>
+        <v>14.72</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="7"/>
+        <v>15.040000000000001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>15.84</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="7"/>
+        <v>14.08</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="7"/>
+        <v>14.08</v>
+      </c>
+      <c r="H26">
+        <f>H24*H25</f>
+        <v>15.52</v>
+      </c>
+      <c r="J26">
+        <f>(J23+J24)*J25</f>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28">
-        <v>0.2</v>
-      </c>
-      <c r="D28">
-        <v>0.2</v>
-      </c>
-      <c r="E28">
-        <v>0.2</v>
-      </c>
-      <c r="F28">
-        <v>0.2</v>
-      </c>
-      <c r="G28">
-        <v>0.2</v>
-      </c>
-      <c r="H28">
-        <v>0.2</v>
-      </c>
-      <c r="J28">
-        <v>0.2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -1278,13 +1312,21 @@
         <v>95</v>
       </c>
       <c r="G29">
-        <v>92</v>
+        <v>37.5</v>
       </c>
       <c r="H29">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J29">
         <v>100</v>
+      </c>
+      <c r="L29" s="3">
+        <f>AVERAGE(C29:H29)</f>
+        <v>78.75</v>
+      </c>
+      <c r="M29" s="3">
+        <f>STDEV(C29:H29)</f>
+        <v>22.234545194359161</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
@@ -1292,30 +1334,59 @@
         <v>55</v>
       </c>
       <c r="C30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J30">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <v>95</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>95</v>
+      </c>
+      <c r="G31">
+        <v>92</v>
+      </c>
+      <c r="H31">
+        <v>98</v>
+      </c>
+      <c r="J31">
+        <v>100</v>
+      </c>
+      <c r="L31" s="3">
+        <f>AVERAGE(C31:H31)</f>
+        <v>95</v>
+      </c>
+      <c r="M31" s="3">
+        <f>STDEV(C31:H31)</f>
+        <v>3.687817782917155</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
@@ -1323,218 +1394,266 @@
         <v>55</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J32">
-        <v>0.5</v>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5">
+        <v>95</v>
+      </c>
+      <c r="D33" s="5">
+        <v>95</v>
+      </c>
+      <c r="E33" s="5">
+        <v>95</v>
+      </c>
+      <c r="F33" s="5">
+        <v>95</v>
+      </c>
+      <c r="G33" s="5">
+        <v>95</v>
+      </c>
+      <c r="H33" s="5">
+        <v>95</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:H34" si="7">C27*C28+C29*C30+C31*C32</f>
-        <v>42</v>
+        <v>0.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="7"/>
-        <v>45.5</v>
+        <v>0.5</v>
       </c>
       <c r="E34">
-        <f t="shared" si="7"/>
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
-        <v>47.5</v>
+        <v>0.5</v>
       </c>
       <c r="G34">
-        <f t="shared" si="7"/>
-        <v>35.099999999999994</v>
+        <v>0.5</v>
       </c>
       <c r="H34">
-        <f t="shared" si="7"/>
-        <v>45.4</v>
+        <v>0.5</v>
       </c>
       <c r="J34">
-        <f>J27*J28+J29*J30+J31*J32</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0.2</v>
-      </c>
-      <c r="D35">
-        <v>0.2</v>
-      </c>
-      <c r="E35">
-        <v>0.2</v>
-      </c>
-      <c r="F35">
-        <v>0.2</v>
-      </c>
-      <c r="G35">
-        <v>0.2</v>
-      </c>
-      <c r="H35">
-        <v>0.2</v>
-      </c>
-      <c r="J35">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36">
-        <f>C34*C35</f>
-        <v>8.4</v>
+        <f t="shared" ref="C36:H36" si="8">C29*C30+C31*C32+C33*C34</f>
+        <v>89.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:H36" si="8">D34*D35</f>
-        <v>9.1</v>
+        <f t="shared" si="8"/>
+        <v>93</v>
       </c>
       <c r="E36">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>97.5</v>
       </c>
       <c r="F36">
         <f t="shared" si="8"/>
-        <v>9.5</v>
+        <v>95</v>
       </c>
       <c r="G36">
         <f t="shared" si="8"/>
-        <v>7.02</v>
+        <v>82.6</v>
       </c>
       <c r="H36">
         <f t="shared" si="8"/>
-        <v>9.08</v>
+        <v>92.9</v>
       </c>
       <c r="J36">
-        <f>J34*J35</f>
-        <v>10</v>
+        <f>J29*J30+J31*J32+J33*J34</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0.2</v>
+      </c>
+      <c r="D37">
+        <v>0.2</v>
+      </c>
+      <c r="E37">
+        <v>0.2</v>
+      </c>
+      <c r="F37">
+        <v>0.2</v>
+      </c>
+      <c r="G37">
+        <v>0.2</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="J37">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:G39" si="9">SUM(C9,C20,C13,C17,C24,C36)</f>
-        <v>64.88000000000001</v>
-      </c>
-      <c r="D39">
-        <f>SUM(D9,D21,D13,D17,D24,D36)</f>
-        <v>65.739999999999995</v>
-      </c>
-      <c r="E39">
-        <f>SUM(E9,E20,E13,E17,E24,E36)</f>
-        <v>74.960000000000008</v>
-      </c>
-      <c r="F39">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <f>C36*C37</f>
+        <v>17.900000000000002</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:H38" si="9">D36*D37</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="9"/>
-        <v>68.539999999999992</v>
-      </c>
-      <c r="G39">
+        <v>19.5</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="9"/>
-        <v>64.459999999999994</v>
-      </c>
-      <c r="H39">
-        <f>SUM(H9,H20,H13,H17,H24,H36)</f>
-        <v>70.36</v>
-      </c>
-      <c r="J39">
-        <f>SUM(J9,J20,J13,J17,J24,J36)</f>
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="9"/>
+        <v>16.52</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="9"/>
+        <v>18.580000000000002</v>
+      </c>
+      <c r="J38">
+        <f>J36*J37</f>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="L41" t="s">
-        <v>58</v>
-      </c>
-      <c r="M41" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <f>SUM(C9,C22,C13,C17,C26,C38)</f>
+        <v>88.940000000000012</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:H41" si="10">SUM(D9,D22,D13,D17,D26,D38)</f>
+        <v>90.44</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="10"/>
+        <v>100.62</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="10"/>
+        <v>94.2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="10"/>
+        <v>89.64</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="10"/>
+        <v>95.539999999999992</v>
+      </c>
+      <c r="J41">
+        <f>SUM(J9,J22,J13,J17,J26,J38)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1">
-        <f>C39/$J$39</f>
-        <v>0.87675675675675691</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" ref="D42:H42" si="10">D39/$J$39</f>
-        <v>0.8883783783783783</v>
-      </c>
-      <c r="E42" s="1">
-        <f>E39/$J$39</f>
-        <v>1.0129729729729731</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" ref="F42:G42" si="11">F39/$J$39</f>
-        <v>0.92621621621621608</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="11"/>
-        <v>0.87108108108108095</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="10"/>
-        <v>0.95081081081081076</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="L42" s="3">
-        <f>AVERAGE(C42:H42)</f>
-        <v>0.92103603603603601</v>
-      </c>
-      <c r="M42" s="3">
-        <f>STDEV(C42:H42)</f>
-        <v>5.4568207877229734E-2</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" t="s">
+        <v>58</v>
+      </c>
+      <c r="M43" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1">
+        <f>C41/$J$41</f>
+        <v>0.88940000000000008</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" ref="D44:H44" si="11">D41/$J$41</f>
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="E44" s="1">
+        <f>E41/$J$41</f>
+        <v>1.0062</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ref="F44:G44" si="12">F41/$J$41</f>
+        <v>0.94200000000000006</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="12"/>
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="11"/>
+        <v>0.95539999999999992</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="L44" s="3">
+        <f>100*AVERAGE(C44:H44)</f>
+        <v>93.23</v>
+      </c>
+      <c r="M44" s="3">
+        <f>100*STDEV(C44:H44)</f>
+        <v>4.4713622085445035</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>32</v>
-      </c>
-      <c r="J44">
-        <f>SUM(J24,J20,J17,J13,J9,J36)</f>
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2024/grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE57F75F-EFEF-AF43-9D4A-C041DAE0641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63491286-6201-0946-962E-15DE1FE446CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="4500" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
+    <workbookView xWindow="8440" yWindow="4180" windowWidth="26560" windowHeight="16240" xr2:uid="{114B66FC-D05D-1747-9E35-A6C9832FE69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Weight</t>
   </si>
@@ -227,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,13 +240,6 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -290,7 +283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78032B97-D432-2040-AA85-829DA4457FB6}">
-  <dimension ref="B2:P46"/>
+  <dimension ref="B2:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,7 +1040,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f>(E14+E15)*E16</f>
         <v>16.64</v>
       </c>
       <c r="F17">
@@ -1177,7 +1170,7 @@
         <v>15.200000000000001</v>
       </c>
       <c r="E22">
-        <f t="shared" si="6"/>
+        <f>(E18+E19+E20)*E21</f>
         <v>16.32</v>
       </c>
       <c r="F22">
@@ -1420,7 +1413,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="5">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5">
         <v>95</v>
@@ -1429,10 +1422,10 @@
         <v>95</v>
       </c>
       <c r="F33" s="5">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G33" s="5">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H33" s="5">
         <v>95</v>
@@ -1472,11 +1465,11 @@
         <v>56</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:H36" si="8">C29*C30+C31*C32+C33*C34</f>
-        <v>89.5</v>
+        <f>C29*C30+C31*C32+C33*C34</f>
+        <v>79.5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C36:H36" si="8">D29*D30+D31*D32+D33*D34</f>
         <v>93</v>
       </c>
       <c r="E36">
@@ -1485,11 +1478,11 @@
       </c>
       <c r="F36">
         <f t="shared" si="8"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G36">
         <f t="shared" si="8"/>
-        <v>82.6</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="H36">
         <f t="shared" si="8"/>
@@ -1502,158 +1495,199 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>0.2</v>
-      </c>
-      <c r="J37">
-        <v>0.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.2</v>
+      </c>
+      <c r="D38">
+        <v>0.2</v>
+      </c>
+      <c r="E38">
+        <v>0.2</v>
+      </c>
+      <c r="F38">
+        <v>0.2</v>
+      </c>
+      <c r="G38">
+        <v>0.2</v>
+      </c>
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="J38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="C38">
-        <f>C36*C37</f>
-        <v>17.900000000000002</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ref="D38:H38" si="9">D36*D37</f>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E38">
+      <c r="C39">
+        <f>(C36+C37)*C38</f>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:H39" si="9">(D36+D37)*D38</f>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E39">
         <f t="shared" si="9"/>
-        <v>19.5</v>
-      </c>
-      <c r="F38">
+        <v>20.5</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="9"/>
-        <v>19</v>
-      </c>
-      <c r="G38">
+        <v>17</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="9"/>
-        <v>16.52</v>
-      </c>
-      <c r="H38">
+        <v>14.52</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="9"/>
-        <v>18.580000000000002</v>
-      </c>
-      <c r="J38">
-        <f>J36*J37</f>
+        <v>19.580000000000002</v>
+      </c>
+      <c r="J39">
+        <f>J36*J38</f>
         <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <f>SUM(C9,C22,C13,C17,C26,C38)</f>
-        <v>88.940000000000012</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ref="D41:H41" si="10">SUM(D9,D22,D13,D17,D26,D38)</f>
-        <v>90.44</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="10"/>
-        <v>100.62</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="10"/>
-        <v>94.2</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="10"/>
-        <v>89.64</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="10"/>
-        <v>95.539999999999992</v>
-      </c>
-      <c r="J41">
-        <f>SUM(J9,J22,J13,J17,J26,J38)</f>
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <f>SUM(C9,C22,C13,C17,C26,C39)</f>
+        <v>87.940000000000012</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:H42" si="10">SUM(D9,D22,D13,D17,D26,D39)</f>
+        <v>91.44</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="10"/>
+        <v>101.62</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="10"/>
+        <v>92.2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="10"/>
+        <v>87.64</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="10"/>
+        <v>96.539999999999992</v>
+      </c>
+      <c r="J42">
+        <f>SUM(J9,J22,J13,J17,J26,J39)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="L43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M43" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" t="s">
+        <v>58</v>
+      </c>
+      <c r="M44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="1">
-        <f>C41/$J$41</f>
-        <v>0.88940000000000008</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" ref="D44:H44" si="11">D41/$J$41</f>
-        <v>0.90439999999999998</v>
-      </c>
-      <c r="E44" s="1">
-        <f>E41/$J$41</f>
-        <v>1.0062</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" ref="F44:G44" si="12">F41/$J$41</f>
-        <v>0.94200000000000006</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="C45" s="1">
+        <f>C42/$J$42</f>
+        <v>0.87940000000000007</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" ref="D45:H45" si="11">D42/$J$42</f>
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="E45" s="1">
+        <f>E42/$J$42</f>
+        <v>1.0162</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" ref="F45:G45" si="12">F42/$J$42</f>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="G45" s="1">
         <f t="shared" si="12"/>
-        <v>0.89639999999999997</v>
-      </c>
-      <c r="H44" s="1">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="H45" s="1">
         <f t="shared" si="11"/>
-        <v>0.95539999999999992</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="L44" s="3">
-        <f>100*AVERAGE(C44:H44)</f>
-        <v>93.23</v>
-      </c>
-      <c r="M44" s="3">
-        <f>100*STDEV(C44:H44)</f>
-        <v>4.4713622085445035</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+        <v>0.96539999999999992</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="L45" s="3">
+        <f>100*AVERAGE(C45:H45)</f>
+        <v>92.896666666666675</v>
+      </c>
+      <c r="M45" s="3">
+        <f>100*STDEV(C45:H45)</f>
+        <v>5.3698926122099175</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
